--- a/src/data/B_流量資料.xlsx
+++ b/src/data/B_流量資料.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Operations-Research-Applications\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,15 +33,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44,8 +49,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,18 +101,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -142,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +194,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,14 +405,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -409,13 +436,13 @@
         <v>43891</v>
       </c>
       <c r="C2">
-        <v>0.6634466907684531</v>
+        <v>0.66344669076845308</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,13 +450,13 @@
         <v>43892</v>
       </c>
       <c r="C3">
-        <v>0.6900081686017097</v>
+        <v>0.69000816860170966</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -437,13 +464,13 @@
         <v>43893</v>
       </c>
       <c r="C4">
-        <v>0.6421975085018479</v>
+        <v>0.64219750850184787</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -457,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -465,13 +492,13 @@
         <v>43895</v>
       </c>
       <c r="C6">
-        <v>0.6414105017512328</v>
+        <v>0.64141050175123282</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -479,13 +506,13 @@
         <v>43896</v>
       </c>
       <c r="C7">
-        <v>0.6370819646228503</v>
+        <v>0.63708196462285027</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -493,13 +520,13 @@
         <v>43897</v>
       </c>
       <c r="C8">
-        <v>1.099841933984476</v>
+        <v>1.0998419339844761</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -507,13 +534,13 @@
         <v>43898</v>
       </c>
       <c r="C9">
-        <v>1.205891093629848</v>
+        <v>1.2058910936298479</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -527,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -535,13 +562,13 @@
         <v>43900</v>
       </c>
       <c r="C11">
-        <v>0.9101733070862585</v>
+        <v>0.91017330708625854</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -549,13 +576,13 @@
         <v>43901</v>
       </c>
       <c r="C12">
-        <v>0.7832684685495883</v>
+        <v>0.78326846854958831</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -563,13 +590,13 @@
         <v>43902</v>
       </c>
       <c r="C13">
-        <v>0.8700359628048931</v>
+        <v>0.87003596280489315</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -583,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -597,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -611,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -619,13 +646,13 @@
         <v>43906</v>
       </c>
       <c r="C17">
-        <v>12.21099999085484</v>
+        <v>12.210999990854839</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -633,13 +660,13 @@
         <v>43907</v>
       </c>
       <c r="C18">
-        <v>5.6995028879539</v>
+        <v>5.6995028879538996</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -653,7 +680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -667,7 +694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -675,13 +702,13 @@
         <v>43910</v>
       </c>
       <c r="C21">
-        <v>1.977747964295519</v>
+        <v>1.9777479642955189</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -689,13 +716,13 @@
         <v>43911</v>
       </c>
       <c r="C22">
-        <v>1.580506306922593</v>
+        <v>1.5805063069225931</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -709,7 +736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -717,13 +744,13 @@
         <v>43913</v>
       </c>
       <c r="C24">
-        <v>1.067377905521607</v>
+        <v>1.0673779055216071</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -731,13 +758,13 @@
         <v>43914</v>
       </c>
       <c r="C25">
-        <v>1.097087410357323</v>
+        <v>1.0970874103573229</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -751,7 +778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -765,7 +792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -779,7 +806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -793,7 +820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -807,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -821,7 +848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -835,7 +862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -849,7 +876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -857,13 +884,13 @@
         <v>43923</v>
       </c>
       <c r="C34">
-        <v>0.9044675081442998</v>
+        <v>0.90446750814429977</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -871,13 +898,13 @@
         <v>43924</v>
       </c>
       <c r="C35">
-        <v>0.7486401715225279</v>
+        <v>0.74864017152252793</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -885,13 +912,13 @@
         <v>43925</v>
       </c>
       <c r="C36">
-        <v>0.7122411093065837</v>
+        <v>0.71224110930658369</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -899,13 +926,13 @@
         <v>43926</v>
       </c>
       <c r="C37">
-        <v>0.7122411093065837</v>
+        <v>0.71224110930658369</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -913,13 +940,13 @@
         <v>43927</v>
       </c>
       <c r="C38">
-        <v>1.158473936905294</v>
+        <v>1.1584739369052941</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -927,13 +954,13 @@
         <v>43928</v>
       </c>
       <c r="C39">
-        <v>0.9813974180169169</v>
+        <v>0.98139741801691693</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -941,13 +968,13 @@
         <v>43929</v>
       </c>
       <c r="C40">
-        <v>0.9813974180169169</v>
+        <v>0.98139741801691693</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -955,13 +982,13 @@
         <v>43930</v>
       </c>
       <c r="C41">
-        <v>0.9412600737355514</v>
+        <v>0.94126007373555143</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -975,7 +1002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -983,13 +1010,13 @@
         <v>43932</v>
       </c>
       <c r="C43">
-        <v>1.481736959720409</v>
+        <v>1.4817369597204091</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1003,7 +1030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1011,13 +1038,13 @@
         <v>43934</v>
       </c>
       <c r="C45">
-        <v>0.8405232096568303</v>
+        <v>0.84052320965683025</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1031,7 +1058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1039,13 +1066,13 @@
         <v>43936</v>
       </c>
       <c r="C47">
-        <v>1.52580933775485</v>
+        <v>1.5258093377548501</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1053,13 +1080,13 @@
         <v>43937</v>
       </c>
       <c r="C48">
-        <v>1.508101685866012</v>
+        <v>1.5081016858660119</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1067,13 +1094,13 @@
         <v>43938</v>
       </c>
       <c r="C49">
-        <v>1.322958347783831</v>
+        <v>1.3229583477838309</v>
       </c>
       <c r="D49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1087,7 +1114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1095,13 +1122,13 @@
         <v>43940</v>
       </c>
       <c r="C51">
-        <v>1.046325474942655</v>
+        <v>1.0463254749426549</v>
       </c>
       <c r="D51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1109,13 +1136,13 @@
         <v>43941</v>
       </c>
       <c r="C52">
-        <v>1.233829833276681</v>
+        <v>1.2338298332766811</v>
       </c>
       <c r="D52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1123,13 +1150,13 @@
         <v>43942</v>
       </c>
       <c r="C53">
-        <v>0.9971375530292171</v>
+        <v>0.99713755302921714</v>
       </c>
       <c r="D53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1137,13 +1164,13 @@
         <v>43943</v>
       </c>
       <c r="C54">
-        <v>1.017993231920515</v>
+        <v>1.0179932319205149</v>
       </c>
       <c r="D54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1157,7 +1184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1165,13 +1192,13 @@
         <v>43945</v>
       </c>
       <c r="C56">
-        <v>0.8914818967591521</v>
+        <v>0.89148189675915213</v>
       </c>
       <c r="D56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1185,7 +1212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1199,7 +1226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1213,7 +1240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1221,13 +1248,13 @@
         <v>43949</v>
       </c>
       <c r="C60">
-        <v>1.473670140526605</v>
+        <v>1.4736701405266051</v>
       </c>
       <c r="D60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1241,7 +1268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1249,13 +1276,13 @@
         <v>43951</v>
       </c>
       <c r="C62">
-        <v>1.446518407630388</v>
+        <v>1.4465184076303881</v>
       </c>
       <c r="D62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1269,7 +1296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1283,7 +1310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1291,13 +1318,13 @@
         <v>43954</v>
       </c>
       <c r="C65">
-        <v>1.025273044363704</v>
+        <v>1.0252730443637039</v>
       </c>
       <c r="D65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1305,13 +1332,13 @@
         <v>43955</v>
       </c>
       <c r="C66">
-        <v>0.9375217916701302</v>
+        <v>0.93752179167013017</v>
       </c>
       <c r="D66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1319,13 +1346,13 @@
         <v>43956</v>
       </c>
       <c r="C67">
-        <v>0.9564099536848905</v>
+        <v>0.95640995368489046</v>
       </c>
       <c r="D67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1333,13 +1360,13 @@
         <v>43957</v>
       </c>
       <c r="C68">
-        <v>1.863041730393382</v>
+        <v>1.8630417303933819</v>
       </c>
       <c r="D68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1353,7 +1380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1367,7 +1394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1375,13 +1402,13 @@
         <v>43960</v>
       </c>
       <c r="C71">
-        <v>1.261178317860553</v>
+        <v>1.2611783178605529</v>
       </c>
       <c r="D71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1389,13 +1416,13 @@
         <v>43961</v>
       </c>
       <c r="C72">
-        <v>1.183658152924974</v>
+        <v>1.1836581529249739</v>
       </c>
       <c r="D72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1409,7 +1436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1417,13 +1444,13 @@
         <v>43963</v>
       </c>
       <c r="C74">
-        <v>1.118139840936275</v>
+        <v>1.1181398409362751</v>
       </c>
       <c r="D74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1431,13 +1458,13 @@
         <v>43964</v>
       </c>
       <c r="C75">
-        <v>1.013664694792132</v>
+        <v>1.0136646947921319</v>
       </c>
       <c r="D75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1451,7 +1478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1459,13 +1486,13 @@
         <v>43966</v>
       </c>
       <c r="C77">
-        <v>1.072099946025297</v>
+        <v>1.0720999460252969</v>
       </c>
       <c r="D77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1479,7 +1506,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1487,13 +1514,13 @@
         <v>43968</v>
       </c>
       <c r="C79">
-        <v>0.8485900288506341</v>
+        <v>0.84859002885063406</v>
       </c>
       <c r="D79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1501,13 +1528,13 @@
         <v>43969</v>
       </c>
       <c r="C80">
-        <v>1.105350981238781</v>
+        <v>1.1053509812387809</v>
       </c>
       <c r="D80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1515,13 +1542,13 @@
         <v>43970</v>
       </c>
       <c r="C81">
-        <v>2.390729756680745</v>
+        <v>2.3907297566807451</v>
       </c>
       <c r="D81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1529,13 +1556,13 @@
         <v>43971</v>
       </c>
       <c r="C82">
-        <v>1.463832556143918</v>
+        <v>1.4638325561439181</v>
       </c>
       <c r="D82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1549,7 +1576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1557,13 +1584,13 @@
         <v>43973</v>
       </c>
       <c r="C84">
-        <v>0.8572471031073992</v>
+        <v>0.85724710310739916</v>
       </c>
       <c r="D84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1577,7 +1604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1591,7 +1618,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1599,13 +1626,13 @@
         <v>43976</v>
       </c>
       <c r="C87">
-        <v>0.7490336748978353</v>
+        <v>0.74903367489783534</v>
       </c>
       <c r="D87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1613,13 +1640,13 @@
         <v>43977</v>
       </c>
       <c r="C88">
-        <v>1.373917034886153</v>
+        <v>1.3739170348861529</v>
       </c>
       <c r="D88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1627,13 +1654,13 @@
         <v>43978</v>
       </c>
       <c r="C89">
-        <v>0.9943830294020646</v>
+        <v>0.99438302940206458</v>
       </c>
       <c r="D89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1647,7 +1674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1655,13 +1682,13 @@
         <v>43980</v>
       </c>
       <c r="C91">
-        <v>0.9945797810897183</v>
+        <v>0.99457978108971834</v>
       </c>
       <c r="D91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1669,13 +1696,13 @@
         <v>43981</v>
       </c>
       <c r="C92">
-        <v>0.9237491735343675</v>
+        <v>0.92374917353436747</v>
       </c>
       <c r="D92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1683,13 +1710,13 @@
         <v>43982</v>
       </c>
       <c r="C93">
-        <v>0.9800201562033407</v>
+        <v>0.98002015620334071</v>
       </c>
       <c r="D93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1697,13 +1724,13 @@
         <v>43983</v>
       </c>
       <c r="C94">
-        <v>2.958751878937129</v>
+        <v>2.9587518789371292</v>
       </c>
       <c r="D94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1711,13 +1738,13 @@
         <v>43984</v>
       </c>
       <c r="C95">
-        <v>2.193781317339339</v>
+        <v>2.1937813173393388</v>
       </c>
       <c r="D95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1731,7 +1758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1739,13 +1766,13 @@
         <v>43986</v>
       </c>
       <c r="C97">
-        <v>2.121770199658066</v>
+        <v>2.1217701996580658</v>
       </c>
       <c r="D97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1753,13 +1780,13 @@
         <v>43987</v>
       </c>
       <c r="C98">
-        <v>2.324424437941431</v>
+        <v>2.3244244379414312</v>
       </c>
       <c r="D98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1767,13 +1794,13 @@
         <v>43988</v>
       </c>
       <c r="C99">
-        <v>2.135346066106175</v>
+        <v>2.1353460661061749</v>
       </c>
       <c r="D99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1781,13 +1808,13 @@
         <v>43989</v>
       </c>
       <c r="C100">
-        <v>1.952170244900531</v>
+        <v>1.9521702449005309</v>
       </c>
       <c r="D100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1795,13 +1822,13 @@
         <v>43990</v>
       </c>
       <c r="C101">
-        <v>1.116762579122699</v>
+        <v>1.1167625791226989</v>
       </c>
       <c r="D101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1815,7 +1842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1823,13 +1850,13 @@
         <v>43992</v>
       </c>
       <c r="C103">
-        <v>0.880463802250542</v>
+        <v>0.88046380225054199</v>
       </c>
       <c r="D103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1843,7 +1870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1857,7 +1884,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1865,13 +1892,13 @@
         <v>43995</v>
       </c>
       <c r="C106">
-        <v>0.7700861054767869</v>
+        <v>0.77008610547678691</v>
       </c>
       <c r="D106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1885,7 +1912,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1893,13 +1920,13 @@
         <v>43997</v>
       </c>
       <c r="C108">
-        <v>2.276023522778608</v>
+        <v>2.2760235227786079</v>
       </c>
       <c r="D108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1907,13 +1934,13 @@
         <v>43998</v>
       </c>
       <c r="C109">
-        <v>2.141838871798749</v>
+        <v>2.1418388717987491</v>
       </c>
       <c r="D109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1921,13 +1948,13 @@
         <v>43999</v>
       </c>
       <c r="C110">
-        <v>1.508298437553666</v>
+        <v>1.5082984375536661</v>
       </c>
       <c r="D110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1941,7 +1968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1949,13 +1976,13 @@
         <v>44001</v>
       </c>
       <c r="C112">
-        <v>1.373130028135538</v>
+        <v>1.3731300281355381</v>
       </c>
       <c r="D112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1963,13 +1990,13 @@
         <v>44002</v>
       </c>
       <c r="C113">
-        <v>1.115582068996776</v>
+        <v>1.1155820689967759</v>
       </c>
       <c r="D113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -1977,13 +2004,13 @@
         <v>44003</v>
       </c>
       <c r="C114">
-        <v>0.9465723693022028</v>
+        <v>0.94657236930220279</v>
       </c>
       <c r="D114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -1991,13 +2018,13 @@
         <v>44004</v>
       </c>
       <c r="C115">
-        <v>0.9802169078909945</v>
+        <v>0.98021690789099447</v>
       </c>
       <c r="D115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2005,13 +2032,13 @@
         <v>44005</v>
       </c>
       <c r="C116">
-        <v>0.8161260003877649</v>
+        <v>0.81612600038776495</v>
       </c>
       <c r="D116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2019,13 +2046,13 @@
         <v>44006</v>
       </c>
       <c r="C117">
-        <v>0.840719961344484</v>
+        <v>0.84071996134448401</v>
       </c>
       <c r="D117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2039,7 +2066,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2053,7 +2080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2061,13 +2088,13 @@
         <v>44009</v>
       </c>
       <c r="C120">
-        <v>0.9227654150960988</v>
+        <v>0.92276541509609877</v>
       </c>
       <c r="D120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2075,13 +2102,13 @@
         <v>44010</v>
       </c>
       <c r="C121">
-        <v>1.05340853569819</v>
+        <v>1.0534085356981899</v>
       </c>
       <c r="D121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2089,13 +2116,13 @@
         <v>44011</v>
       </c>
       <c r="C122">
-        <v>0.7533622120262179</v>
+        <v>0.75336221202621789</v>
       </c>
       <c r="D122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2103,13 +2130,13 @@
         <v>44012</v>
       </c>
       <c r="C123">
-        <v>0.9068285283961448</v>
+        <v>0.90682852839614481</v>
       </c>
       <c r="D123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2117,13 +2144,13 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>2.206963680412141</v>
+        <v>2.2069636804121409</v>
       </c>
       <c r="D124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2137,7 +2164,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2151,7 +2178,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2159,13 +2186,13 @@
         <v>44016</v>
       </c>
       <c r="C127">
-        <v>1.166344004411444</v>
+        <v>1.1663440044114439</v>
       </c>
       <c r="D127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2179,7 +2206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2187,13 +2214,13 @@
         <v>44018</v>
       </c>
       <c r="C129">
-        <v>1.042783944564888</v>
+        <v>1.0427839445648881</v>
       </c>
       <c r="D129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2201,13 +2228,13 @@
         <v>44019</v>
       </c>
       <c r="C130">
-        <v>0.7856294888014334</v>
+        <v>0.78562948880143335</v>
       </c>
       <c r="D130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2215,13 +2242,13 @@
         <v>44020</v>
       </c>
       <c r="C131">
-        <v>0.8712164729308156</v>
+        <v>0.87121647293081561</v>
       </c>
       <c r="D131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2229,13 +2256,13 @@
         <v>44021</v>
       </c>
       <c r="C132">
-        <v>0.9233556701590601</v>
+        <v>0.92335567015906006</v>
       </c>
       <c r="D132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2243,13 +2270,13 @@
         <v>44022</v>
       </c>
       <c r="C133">
-        <v>0.8814475606888107</v>
+        <v>0.88144756068881069</v>
       </c>
       <c r="D133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2257,13 +2284,13 @@
         <v>44023</v>
       </c>
       <c r="C134">
-        <v>2.060580424797749</v>
+        <v>2.0605804247977488</v>
       </c>
       <c r="D134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2277,7 +2304,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2285,13 +2312,13 @@
         <v>44025</v>
       </c>
       <c r="C136">
-        <v>1.31292401171349</v>
+        <v>1.3129240117134899</v>
       </c>
       <c r="D136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2305,7 +2332,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2313,13 +2340,13 @@
         <v>44027</v>
       </c>
       <c r="C138">
-        <v>1.282230748439504</v>
+        <v>1.2822307484395039</v>
       </c>
       <c r="D138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2327,13 +2354,13 @@
         <v>44028</v>
       </c>
       <c r="C139">
-        <v>0.9739208538860744</v>
+        <v>0.97392085388607441</v>
       </c>
       <c r="D139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2341,13 +2368,13 @@
         <v>44029</v>
       </c>
       <c r="C140">
-        <v>1.0984646721709</v>
+        <v>1.0984646721708999</v>
       </c>
       <c r="D140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2355,13 +2382,13 @@
         <v>44030</v>
       </c>
       <c r="C141">
-        <v>1.016025715043977</v>
+        <v>1.0160257150439771</v>
       </c>
       <c r="D141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2369,13 +2396,13 @@
         <v>44031</v>
       </c>
       <c r="C142">
-        <v>1.071903194337643</v>
+        <v>1.0719031943376429</v>
       </c>
       <c r="D142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2389,7 +2416,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2397,13 +2424,13 @@
         <v>44033</v>
       </c>
       <c r="C144">
-        <v>0.9107635621492198</v>
+        <v>0.91076356214921983</v>
       </c>
       <c r="D144">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2417,7 +2444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2425,13 +2452,13 @@
         <v>44035</v>
       </c>
       <c r="C146">
-        <v>1.627333208584186</v>
+        <v>1.6273332085841861</v>
       </c>
       <c r="D146">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2445,7 +2472,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2459,7 +2486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2473,7 +2500,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2487,7 +2514,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2501,7 +2528,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2515,7 +2542,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2523,13 +2550,13 @@
         <v>44042</v>
       </c>
       <c r="C153">
-        <v>1.213564409448345</v>
+        <v>1.2135644094483451</v>
       </c>
       <c r="D153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2543,7 +2570,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2557,7 +2584,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2565,13 +2592,13 @@
         <v>44045</v>
       </c>
       <c r="C156">
-        <v>1.078789503405524</v>
+        <v>1.0787895034055239</v>
       </c>
       <c r="D156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2579,13 +2606,13 @@
         <v>44046</v>
       </c>
       <c r="C157">
-        <v>1.089610846226481</v>
+        <v>1.0896108462264811</v>
       </c>
       <c r="D157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2593,13 +2620,13 @@
         <v>44047</v>
       </c>
       <c r="C158">
-        <v>1.569094709038675</v>
+        <v>1.5690947090386751</v>
       </c>
       <c r="D158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2613,7 +2640,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2621,13 +2648,13 @@
         <v>44049</v>
       </c>
       <c r="C160">
-        <v>1.12522290169181</v>
+        <v>1.1252229016918101</v>
       </c>
       <c r="D160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2641,7 +2668,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2655,7 +2682,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2669,7 +2696,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2683,7 +2710,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2691,13 +2718,13 @@
         <v>44054</v>
       </c>
       <c r="C165">
-        <v>1.46029102576615</v>
+        <v>1.4602910257661501</v>
       </c>
       <c r="D165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2705,13 +2732,13 @@
         <v>44055</v>
       </c>
       <c r="C166">
-        <v>1.082921288846253</v>
+        <v>1.0829212888462529</v>
       </c>
       <c r="D166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2725,7 +2752,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2733,13 +2760,13 @@
         <v>44057</v>
       </c>
       <c r="C168">
-        <v>1.258030290858093</v>
+        <v>1.2580302908580929</v>
       </c>
       <c r="D168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2747,13 +2774,13 @@
         <v>44058</v>
       </c>
       <c r="C169">
-        <v>1.253111498666749</v>
+        <v>1.2531114986667491</v>
       </c>
       <c r="D169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2767,7 +2794,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2775,13 +2802,13 @@
         <v>44060</v>
       </c>
       <c r="C171">
-        <v>0.9204043948442537</v>
+        <v>0.92040439484425374</v>
       </c>
       <c r="D171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2789,13 +2816,13 @@
         <v>44061</v>
       </c>
       <c r="C172">
-        <v>0.9981213114674859</v>
+        <v>0.99812131146748595</v>
       </c>
       <c r="D172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2809,7 +2836,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2817,13 +2844,13 @@
         <v>44063</v>
       </c>
       <c r="C174">
-        <v>0.8460322569111353</v>
+        <v>0.84603225691113526</v>
       </c>
       <c r="D174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2831,13 +2858,13 @@
         <v>44064</v>
       </c>
       <c r="C175">
-        <v>0.8739709965579682</v>
+        <v>0.87397099655796817</v>
       </c>
       <c r="D175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2845,13 +2872,13 @@
         <v>44065</v>
       </c>
       <c r="C176">
-        <v>1.136437747888074</v>
+        <v>1.1364377478880741</v>
       </c>
       <c r="D176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2859,13 +2886,13 @@
         <v>44066</v>
       </c>
       <c r="C177">
-        <v>0.7531654603385641</v>
+        <v>0.75316546033856413</v>
       </c>
       <c r="D177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2873,13 +2900,13 @@
         <v>44067</v>
       </c>
       <c r="C178">
-        <v>0.636491709559889</v>
+        <v>0.63649170955988899</v>
       </c>
       <c r="D178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2887,13 +2914,13 @@
         <v>44068</v>
       </c>
       <c r="C179">
-        <v>0.9436210939873965</v>
+        <v>0.94362109398739646</v>
       </c>
       <c r="D179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2901,13 +2928,13 @@
         <v>44069</v>
       </c>
       <c r="C180">
-        <v>0.9707728268836143</v>
+        <v>0.97077282688361433</v>
       </c>
       <c r="D180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2915,13 +2942,13 @@
         <v>44070</v>
       </c>
       <c r="C181">
-        <v>0.7075190688028936</v>
+        <v>0.70751906880289361</v>
       </c>
       <c r="D181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2935,7 +2962,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -2943,13 +2970,13 @@
         <v>44072</v>
       </c>
       <c r="C183">
-        <v>0.6691524897104119</v>
+        <v>0.66915248971041186</v>
       </c>
       <c r="D183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -2963,7 +2990,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -2971,13 +2998,13 @@
         <v>44074</v>
       </c>
       <c r="C185">
-        <v>6.961271460877414</v>
+        <v>6.9612714608774144</v>
       </c>
       <c r="D185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -2985,13 +3012,13 @@
         <v>44075</v>
       </c>
       <c r="C186">
-        <v>3.433316949557979</v>
+        <v>3.4333169495579789</v>
       </c>
       <c r="D186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -2999,13 +3026,13 @@
         <v>44076</v>
       </c>
       <c r="C187">
-        <v>2.312422584994552</v>
+        <v>2.3124225849945521</v>
       </c>
       <c r="D187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3019,7 +3046,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3027,13 +3054,13 @@
         <v>44078</v>
       </c>
       <c r="C189">
-        <v>0.8973844473887647</v>
+        <v>0.89738444738876466</v>
       </c>
       <c r="D189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3041,13 +3068,13 @@
         <v>44079</v>
       </c>
       <c r="C190">
-        <v>0.9141083408393337</v>
+        <v>0.91410834083933368</v>
       </c>
       <c r="D190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3055,13 +3082,13 @@
         <v>44080</v>
       </c>
       <c r="C191">
-        <v>0.8419004714704065</v>
+        <v>0.84190047147040648</v>
       </c>
       <c r="D191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3069,13 +3096,13 @@
         <v>44081</v>
       </c>
       <c r="C192">
-        <v>0.8967941923258035</v>
+        <v>0.89679419232580349</v>
       </c>
       <c r="D192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3083,13 +3110,13 @@
         <v>44082</v>
       </c>
       <c r="C193">
-        <v>0.8751515066838906</v>
+        <v>0.87515150668389063</v>
       </c>
       <c r="D193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3097,13 +3124,13 @@
         <v>44083</v>
       </c>
       <c r="C194">
-        <v>0.9841519416440695</v>
+        <v>0.98415194164406949</v>
       </c>
       <c r="D194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3117,7 +3144,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3131,7 +3158,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3139,13 +3166,13 @@
         <v>44086</v>
       </c>
       <c r="C197">
-        <v>1.020944507235321</v>
+        <v>1.0209445072353209</v>
       </c>
       <c r="D197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3153,13 +3180,13 @@
         <v>44087</v>
       </c>
       <c r="C198">
-        <v>0.7984183484989272</v>
+        <v>0.79841834849892723</v>
       </c>
       <c r="D198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3173,7 +3200,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3181,13 +3208,13 @@
         <v>44089</v>
       </c>
       <c r="C200">
-        <v>0.8619691436110892</v>
+        <v>0.86196914361108923</v>
       </c>
       <c r="D200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3195,13 +3222,13 @@
         <v>44090</v>
       </c>
       <c r="C201">
-        <v>0.6490838175697292</v>
+        <v>0.64908381756972922</v>
       </c>
       <c r="D201">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3209,13 +3236,13 @@
         <v>44091</v>
       </c>
       <c r="C202">
-        <v>0.8782995336863507</v>
+        <v>0.87829953368635072</v>
       </c>
       <c r="D202">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3229,7 +3256,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3237,13 +3264,13 @@
         <v>44093</v>
       </c>
       <c r="C204">
-        <v>0.7887775158038933</v>
+        <v>0.78877751580389333</v>
       </c>
       <c r="D204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3251,13 +3278,13 @@
         <v>44094</v>
       </c>
       <c r="C205">
-        <v>0.8198642824531862</v>
+        <v>0.81986428245318621</v>
       </c>
       <c r="D205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3265,13 +3292,13 @@
         <v>44095</v>
       </c>
       <c r="C206">
-        <v>0.9296517241639801</v>
+        <v>0.92965172416398012</v>
       </c>
       <c r="D206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3279,13 +3306,13 @@
         <v>44096</v>
       </c>
       <c r="C207">
-        <v>0.940079563609629</v>
+        <v>0.94007956360962897</v>
       </c>
       <c r="D207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3293,13 +3320,13 @@
         <v>44097</v>
       </c>
       <c r="C208">
-        <v>0.9359477781689002</v>
+        <v>0.93594777816890018</v>
       </c>
       <c r="D208">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3307,13 +3334,13 @@
         <v>44098</v>
       </c>
       <c r="C209">
-        <v>1.372933276447884</v>
+        <v>1.3729332764478841</v>
       </c>
       <c r="D209">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3327,7 +3354,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3335,13 +3362,13 @@
         <v>44100</v>
       </c>
       <c r="C211">
-        <v>0.941653577110859</v>
+        <v>0.94165357711085895</v>
       </c>
       <c r="D211">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3349,13 +3376,13 @@
         <v>44101</v>
       </c>
       <c r="C212">
-        <v>0.9355542747935927</v>
+        <v>0.93555427479359266</v>
       </c>
       <c r="D212">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3363,13 +3390,13 @@
         <v>44102</v>
       </c>
       <c r="C213">
-        <v>0.7641835548471743</v>
+        <v>0.76418355484717426</v>
       </c>
       <c r="D213">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -3383,7 +3410,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -3398,6 +3425,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>